--- a/Dataset/N2OR.xlsx
+++ b/Dataset/N2OR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\CSP_Solver_Final\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A356A01-40C5-4783-AF81-2EF2963DDE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E796B-9693-4772-9D6A-7086BA055E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C69255-5912-4D6E-83E6-D37C87DA9D15}">
   <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
